--- a/EmailBlast/Excel/Continent/SouthAmerica.xlsx
+++ b/EmailBlast/Excel/Continent/SouthAmerica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Robots\Ruby\EmailBlast\Excel\Continent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8B8797-54CB-4B21-A961-1C1A26180965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416F22A7-FD17-4AE0-BADC-E5D8F3FBF119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7875" firstSheet="6" activeTab="8" xr2:uid="{A137CB90-262B-4B90-B2EF-3C03DE4DEFB2}"/>
+    <workbookView xWindow="10245" yWindow="2640" windowWidth="10545" windowHeight="5310" firstSheet="6" activeTab="8" xr2:uid="{A137CB90-262B-4B90-B2EF-3C03DE4DEFB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrumental" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
@@ -97,21 +97,6 @@
   </si>
   <si>
     <t>indiehoy</t>
-  </si>
-  <si>
-    <t>FM Lat Tribu 88.7</t>
-  </si>
-  <si>
-    <t>communicacion@fmlatribu.com</t>
-  </si>
-  <si>
-    <t>https://www.fmlatribu.com</t>
-  </si>
-  <si>
-    <t>facebook.com/fmlatribu @fmlatribu</t>
-  </si>
-  <si>
-    <t>Ciudad Autonoma de Buenos Aires, Argentina</t>
   </si>
   <si>
     <t>Zone Nights</t>
@@ -917,77 +902,77 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J4">
         <v>551633518099</v>
@@ -995,28 +980,28 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I5" s="6"/>
     </row>
@@ -1076,13 +1061,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -1091,10 +1076,10 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1192,25 +1177,25 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1272,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F15D6B-1986-4C98-8246-F389BFC561C5}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,174 +1325,149 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="K7" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{0D9D10AE-5D16-4B90-A6D8-D6081A42CD04}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{94FCBAA8-0ABB-4A31-9583-545CB9865BF7}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{98CEFD27-10AC-4D4A-8828-6C11C48ACD2F}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{63BAC7E6-442F-4F3B-974D-905F5C160FF9}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{9AFF50C3-2D93-45A3-AD50-4B38C275E59C}"/>
-    <hyperlink ref="C4" r:id="rId6" xr:uid="{D7B4DBE4-AAC0-484F-A1DA-3ACFA06F6B72}"/>
-    <hyperlink ref="B5" r:id="rId7" xr:uid="{DF15E056-D2F8-4F8B-B483-D59E831BC255}"/>
-    <hyperlink ref="C5" r:id="rId8" xr:uid="{3508BE37-6EB5-4DC7-BA3D-67F52BD15B90}"/>
-    <hyperlink ref="B6" r:id="rId9" xr:uid="{CF254329-C6DB-448C-919F-CDB79BA371E9}"/>
-    <hyperlink ref="C6" r:id="rId10" xr:uid="{9205BB0E-9194-440F-9553-9A6543CA0378}"/>
-    <hyperlink ref="B7" r:id="rId11" xr:uid="{0F632CD3-DFCF-4E5B-BB9D-980F9CCCAF49}"/>
-    <hyperlink ref="C7" r:id="rId12" xr:uid="{70005F14-9FFF-4EA9-87A9-42975271A530}"/>
-    <hyperlink ref="B8" r:id="rId13" xr:uid="{469FC303-7599-4D63-A775-7E60D553FEF4}"/>
-    <hyperlink ref="C8" r:id="rId14" xr:uid="{D76BC994-0F56-4DBD-A847-A82FABE6FD9C}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{9AFF50C3-2D93-45A3-AD50-4B38C275E59C}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{D7B4DBE4-AAC0-484F-A1DA-3ACFA06F6B72}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{DF15E056-D2F8-4F8B-B483-D59E831BC255}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{3508BE37-6EB5-4DC7-BA3D-67F52BD15B90}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{CF254329-C6DB-448C-919F-CDB79BA371E9}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{9205BB0E-9194-440F-9553-9A6543CA0378}"/>
+    <hyperlink ref="B6" r:id="rId9" xr:uid="{0F632CD3-DFCF-4E5B-BB9D-980F9CCCAF49}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{70005F14-9FFF-4EA9-87A9-42975271A530}"/>
+    <hyperlink ref="B7" r:id="rId11" xr:uid="{469FC303-7599-4D63-A775-7E60D553FEF4}"/>
+    <hyperlink ref="C7" r:id="rId12" xr:uid="{D76BC994-0F56-4DBD-A847-A82FABE6FD9C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
